--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF21F27-6314-4327-A836-6D009801D1AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3817F53-1155-4ECF-AC7B-EDC714415407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3025" yWindow="605" windowWidth="17425" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="3364" yWindow="1767" windowWidth="17425" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>z4_268</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my method with lookahead 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt8_260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +107,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -123,11 +142,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,19 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +498,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -495,8 +521,12 @@
       <c r="F2">
         <v>779</v>
       </c>
+      <c r="G2" s="2">
+        <f>214+480</f>
+        <v>694</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -515,8 +545,12 @@
       <c r="F3">
         <v>1885</v>
       </c>
+      <c r="G3">
+        <f>1392+512</f>
+        <v>1904</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -535,8 +569,12 @@
       <c r="F4">
         <v>772</v>
       </c>
+      <c r="G4">
+        <f>535+173</f>
+        <v>708</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -555,8 +593,12 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
+      <c r="G5">
+        <f>7643+B5</f>
+        <v>10716</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -574,6 +616,34 @@
       </c>
       <c r="F6">
         <v>4264</v>
+      </c>
+      <c r="G6">
+        <f>2459+986</f>
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3009</v>
+      </c>
+      <c r="C7">
+        <v>11921</v>
+      </c>
+      <c r="D7">
+        <v>12573</v>
+      </c>
+      <c r="E7">
+        <v>10166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <f>7838+B7</f>
+        <v>10847</v>
       </c>
     </row>
   </sheetData>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3817F53-1155-4ECF-AC7B-EDC714415407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FED3DD-2EDB-4DFB-BB24-E256ED9A7AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3364" yWindow="1767" windowWidth="17425" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>TO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qft_10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -646,6 +650,30 @@
         <v>10847</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>685</v>
+      </c>
+      <c r="D8">
+        <v>721</v>
+      </c>
+      <c r="E8">
+        <v>445</v>
+      </c>
+      <c r="F8">
+        <v>662</v>
+      </c>
+      <c r="G8">
+        <f>478+B8</f>
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FED3DD-2EDB-4DFB-BB24-E256ED9A7AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FDD257-A845-4F70-8F88-01FF051584A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="3546" yWindow="1379" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,31 +60,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>wim_266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z4_268</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my method with lookahead 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt8_260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qft_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astarz作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookahead作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wim_266</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z4_268</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>my method with lookahead 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqrt8_260</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qft_10</t>
+    <t>sys6-v0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwb9_119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqn_258</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookahead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 0.5, 0.1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 0.7, 0.2]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,20 +502,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,19 +530,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -516,21 +561,17 @@
       <c r="C2" s="1">
         <v>235</v>
       </c>
-      <c r="D2">
-        <v>680</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1"/>
+      <c r="F2" s="1">
         <v>235</v>
       </c>
-      <c r="F2">
-        <v>779</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1"/>
+      <c r="I2" s="2">
         <f>214+480</f>
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -540,21 +581,18 @@
       <c r="C3">
         <v>2193</v>
       </c>
-      <c r="D3">
-        <v>1926</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>1299</v>
       </c>
-      <c r="F3">
-        <v>1885</v>
-      </c>
       <c r="G3">
+        <v>1776</v>
+      </c>
+      <c r="I3">
         <f>1392+512</f>
         <v>1904</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -564,23 +602,17 @@
       <c r="C4">
         <v>710</v>
       </c>
-      <c r="D4">
-        <v>842</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>587</v>
       </c>
-      <c r="F4">
-        <v>772</v>
-      </c>
-      <c r="G4">
+      <c r="I4">
         <f>535+173</f>
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3073</v>
@@ -588,23 +620,17 @@
       <c r="C5">
         <v>12041</v>
       </c>
-      <c r="D5">
-        <v>13274</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>10002</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5">
+      <c r="I5">
         <f>7643+B5</f>
         <v>10716</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>986</v>
@@ -612,23 +638,17 @@
       <c r="C6">
         <v>3632</v>
       </c>
-      <c r="D6">
-        <v>3835</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
         <v>3176</v>
       </c>
-      <c r="F6">
-        <v>4264</v>
-      </c>
-      <c r="G6">
+      <c r="I6">
         <f>2459+986</f>
         <v>3445</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3009</v>
@@ -636,23 +656,20 @@
       <c r="C7">
         <v>11921</v>
       </c>
-      <c r="D7">
-        <v>12573</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
         <v>10166</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7">
+        <v>11340</v>
+      </c>
+      <c r="I7">
         <f>7838+B7</f>
         <v>10847</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -660,18 +677,109 @@
       <c r="C8">
         <v>685</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>721</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>445</v>
       </c>
-      <c r="F8">
-        <v>662</v>
-      </c>
       <c r="G8">
-        <f>478+B8</f>
-        <v>678</v>
+        <v>637</v>
+      </c>
+      <c r="H8">
+        <v>641</v>
+      </c>
+      <c r="I8">
+        <v>543</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>27126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>86049</v>
+      </c>
+      <c r="G9">
+        <v>96852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>215</v>
+      </c>
+      <c r="C10">
+        <v>962</v>
+      </c>
+      <c r="E10">
+        <v>1207</v>
+      </c>
+      <c r="F10">
+        <v>794</v>
+      </c>
+      <c r="G10">
+        <v>940</v>
+      </c>
+      <c r="H10">
+        <v>827</v>
+      </c>
+      <c r="I10">
+        <v>812</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>207775</v>
+      </c>
+      <c r="C11">
+        <v>743973</v>
+      </c>
+      <c r="E11">
+        <v>824792</v>
+      </c>
+      <c r="F11">
+        <v>653249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>10223</v>
+      </c>
+      <c r="C12">
+        <v>37781</v>
+      </c>
+      <c r="E12">
+        <v>42134</v>
+      </c>
+      <c r="F12">
+        <v>32009</v>
+      </c>
+      <c r="G12">
+        <v>36957</v>
+      </c>
+      <c r="H12">
+        <v>36635</v>
       </c>
     </row>
   </sheetData>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FDD257-A845-4F70-8F88-01FF051584A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C08A6-2C2A-4F1B-BF9F-ED19F0C47828}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3546" yWindow="1379" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView minimized="1" xWindow="3667" yWindow="2469" windowWidth="17425" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,11 +112,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1, 0.5, 0.1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1, 0.7, 0.2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 0.8, 0.6, 0.4]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>641</v>
       </c>
       <c r="I8">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>812</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C08A6-2C2A-4F1B-BF9F-ED19F0C47828}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B3D9A-48BD-46EC-99B8-50D6EF4F085D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3667" yWindow="2469" windowWidth="17425" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="2602" yWindow="883" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -641,6 +641,9 @@
       <c r="F6">
         <v>3176</v>
       </c>
+      <c r="G6">
+        <v>3867</v>
+      </c>
       <c r="I6">
         <f>2459+986</f>
         <v>3445</v>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B3D9A-48BD-46EC-99B8-50D6EF4F085D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7D83C-6F4D-46FB-872F-214BD431D4AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2602" yWindow="883" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="4017" yWindow="1198" windowWidth="17426" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$15</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sys6-v0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hwb9_119</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,11 +112,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1, 0.7, 0.2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1, 0.8, 0.6, 0.4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 0.8, 0.6, 0.4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm152a_212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys6-v0_111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm42a_207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sym6_145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QX20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd84_142</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -516,10 +540,11 @@
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,246 +573,518 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>710</v>
+      </c>
+      <c r="F2">
+        <v>587</v>
+      </c>
+      <c r="G2">
+        <v>734</v>
+      </c>
+      <c r="I2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>685</v>
+      </c>
+      <c r="E3">
+        <v>721</v>
+      </c>
+      <c r="F3">
+        <v>445</v>
+      </c>
+      <c r="G3">
+        <v>637</v>
+      </c>
+      <c r="H3">
+        <v>641</v>
+      </c>
+      <c r="I3">
+        <v>536</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>215</v>
+      </c>
+      <c r="C4">
+        <v>962</v>
+      </c>
+      <c r="E4">
+        <v>1207</v>
+      </c>
+      <c r="F4">
+        <v>794</v>
+      </c>
+      <c r="G4">
+        <v>940</v>
+      </c>
+      <c r="H4">
+        <v>827</v>
+      </c>
+      <c r="I4">
+        <v>816</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>343</v>
+      </c>
+      <c r="G5">
+        <v>1381</v>
+      </c>
+      <c r="J5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>480</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C6" s="1">
         <v>235</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1">
+      <c r="D6" s="1"/>
+      <c r="F6" s="1">
         <v>235</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="I2" s="2">
-        <f>214+480</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>512</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>2193</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>1299</v>
       </c>
-      <c r="G3">
+      <c r="G7">
         <v>1776</v>
       </c>
-      <c r="I3">
-        <f>1392+512</f>
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>173</v>
-      </c>
-      <c r="C4">
-        <v>710</v>
-      </c>
-      <c r="F4">
-        <v>587</v>
-      </c>
-      <c r="I4">
-        <f>535+173</f>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I7">
+        <v>1724</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>986</v>
+      </c>
+      <c r="C8">
+        <v>3632</v>
+      </c>
+      <c r="F8">
+        <v>3176</v>
+      </c>
+      <c r="G8">
+        <v>3867</v>
+      </c>
+      <c r="I8">
+        <v>3292</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1221</v>
+      </c>
+      <c r="C9">
+        <v>4254</v>
+      </c>
+      <c r="F9">
+        <v>4039</v>
+      </c>
+      <c r="G9">
+        <v>4528</v>
+      </c>
+      <c r="I9">
+        <v>3530</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1776</v>
+      </c>
+      <c r="C10">
+        <v>6473</v>
+      </c>
+      <c r="F10">
+        <v>5572</v>
+      </c>
+      <c r="G10">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3009</v>
+      </c>
+      <c r="C11">
+        <v>11921</v>
+      </c>
+      <c r="F11">
+        <v>10166</v>
+      </c>
+      <c r="G11">
+        <v>11340</v>
+      </c>
+      <c r="I11">
+        <f>7838+B11</f>
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B12">
         <v>3073</v>
       </c>
-      <c r="C5">
+      <c r="C12">
         <v>12041</v>
       </c>
-      <c r="F5">
+      <c r="F12">
         <v>10002</v>
       </c>
-      <c r="I5">
-        <f>7643+B5</f>
-        <v>10716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>986</v>
-      </c>
-      <c r="C6">
-        <v>3632</v>
-      </c>
-      <c r="F6">
-        <v>3176</v>
-      </c>
-      <c r="G6">
-        <v>3867</v>
-      </c>
-      <c r="I6">
-        <f>2459+986</f>
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3009</v>
-      </c>
-      <c r="C7">
-        <v>11921</v>
-      </c>
-      <c r="F7">
-        <v>10166</v>
-      </c>
-      <c r="G7">
-        <v>11340</v>
-      </c>
-      <c r="I7">
-        <f>7838+B7</f>
-        <v>10847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
-        <v>685</v>
-      </c>
-      <c r="E8">
-        <v>721</v>
-      </c>
-      <c r="F8">
-        <v>445</v>
-      </c>
-      <c r="G8">
-        <v>637</v>
-      </c>
-      <c r="H8">
-        <v>641</v>
-      </c>
-      <c r="I8">
-        <v>536</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>3888</v>
+      </c>
+      <c r="G13">
+        <v>13426</v>
+      </c>
+      <c r="I13">
+        <v>11913</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>10223</v>
+      </c>
+      <c r="C14">
+        <v>37781</v>
+      </c>
+      <c r="E14">
+        <v>42134</v>
+      </c>
+      <c r="F14">
+        <v>32009</v>
+      </c>
+      <c r="G14">
+        <v>36957</v>
+      </c>
+      <c r="H14">
+        <v>36635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B15">
         <v>27126</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F15">
         <v>86049</v>
       </c>
-      <c r="G9">
+      <c r="G15">
         <v>96852</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>215</v>
-      </c>
-      <c r="C10">
-        <v>962</v>
-      </c>
-      <c r="E10">
-        <v>1207</v>
-      </c>
-      <c r="F10">
-        <v>794</v>
-      </c>
-      <c r="G10">
-        <v>940</v>
-      </c>
-      <c r="H10">
-        <v>827</v>
-      </c>
-      <c r="I10">
-        <v>812</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
+      <c r="B16">
         <v>207775</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>743973</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>824792</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>653249</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>10223</v>
-      </c>
-      <c r="C12">
-        <v>37781</v>
-      </c>
-      <c r="E12">
-        <v>42134</v>
-      </c>
-      <c r="F12">
-        <v>32009</v>
-      </c>
-      <c r="G12">
-        <v>36957</v>
-      </c>
-      <c r="H12">
-        <v>36635</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="I1:I15" xr:uid="{EF70D8E8-481A-4035-A238-8E1AD3478CB8}"/>
+  <sortState ref="A2:K16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D20069-0B98-43C8-A3E9-A62248B115C9}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>685</v>
+      </c>
+      <c r="E2">
+        <v>721</v>
+      </c>
+      <c r="F2">
+        <v>637</v>
+      </c>
+      <c r="G2">
+        <v>536</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>215</v>
+      </c>
+      <c r="C3">
+        <v>962</v>
+      </c>
+      <c r="E3">
+        <v>1207</v>
+      </c>
+      <c r="F3">
+        <v>940</v>
+      </c>
+      <c r="G3">
+        <v>816</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>512</v>
+      </c>
+      <c r="C4">
+        <v>2193</v>
+      </c>
+      <c r="F4">
+        <v>1776</v>
+      </c>
+      <c r="G4">
+        <v>1724</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>986</v>
+      </c>
+      <c r="C5">
+        <v>3632</v>
+      </c>
+      <c r="F5">
+        <v>3867</v>
+      </c>
+      <c r="G5">
+        <v>3292</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1221</v>
+      </c>
+      <c r="C6">
+        <v>4254</v>
+      </c>
+      <c r="F6">
+        <v>4528</v>
+      </c>
+      <c r="G6">
+        <v>3530</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3009</v>
+      </c>
+      <c r="C7">
+        <v>11921</v>
+      </c>
+      <c r="F7">
+        <v>11340</v>
+      </c>
+      <c r="G7">
+        <f>7838+B7</f>
+        <v>10847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3888</v>
+      </c>
+      <c r="F8">
+        <v>13426</v>
+      </c>
+      <c r="G8">
+        <v>11913</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7D83C-6F4D-46FB-872F-214BD431D4AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B94216-D51E-4349-87DC-B4C634E44183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4017" yWindow="1198" windowWidth="17426" windowHeight="9051" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="1985" yWindow="1706" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,38 @@
   </si>
   <si>
     <t>rd84_142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd73_140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd53_311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squar5_261</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sym9_146</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my method lookahead 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>my method lookahead 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annealing for initial map</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -539,12 +571,15 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,16 +605,25 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -598,8 +642,12 @@
       <c r="I2">
         <v>723</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>G2-I2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -624,11 +672,21 @@
       <c r="I3">
         <v>536</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="0">G3-I3</f>
+        <v>101</v>
+      </c>
+      <c r="K3">
+        <v>438</v>
+      </c>
+      <c r="L3">
+        <v>459</v>
+      </c>
+      <c r="N3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -653,243 +711,438 @@
       <c r="I4">
         <v>816</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="K4">
+        <v>651</v>
+      </c>
+      <c r="N4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5">
+        <v>952</v>
+      </c>
+      <c r="F5">
+        <v>916</v>
+      </c>
+      <c r="G5">
+        <v>934</v>
+      </c>
+      <c r="I5">
+        <v>972</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>275</v>
+      </c>
+      <c r="C6">
+        <v>1367</v>
+      </c>
+      <c r="F6">
+        <v>1044</v>
+      </c>
+      <c r="G6">
+        <v>1092</v>
+      </c>
+      <c r="I6">
+        <v>1148</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>328</v>
+      </c>
+      <c r="C7">
+        <v>1436</v>
+      </c>
+      <c r="F7">
+        <v>1240</v>
+      </c>
+      <c r="G7">
+        <v>1317</v>
+      </c>
+      <c r="I7">
+        <v>1472</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-155</v>
+      </c>
+      <c r="K7">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>343</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>1381</v>
       </c>
-      <c r="J5">
+      <c r="I8">
+        <v>1339</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M8">
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>480</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>235</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1">
+      <c r="D9" s="1"/>
+      <c r="F9" s="1">
         <v>235</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G9" s="2">
+        <v>680</v>
+      </c>
+      <c r="I9" s="2">
+        <v>582</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>512</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>2193</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>1299</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>1776</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>1724</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>986</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>3632</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>3176</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>3867</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>3292</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="K11">
+        <v>2962</v>
+      </c>
+      <c r="N11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>1221</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>4254</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>4039</v>
       </c>
-      <c r="G9">
+      <c r="G12">
         <v>4528</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>3530</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>998</v>
+      </c>
+      <c r="N12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>1776</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>6473</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>5572</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>6209</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I13">
+        <v>5989</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1993</v>
+      </c>
+      <c r="C14">
+        <v>7948</v>
+      </c>
+      <c r="F14">
+        <v>6453</v>
+      </c>
+      <c r="G14">
+        <v>7348</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>3009</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>11921</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>10166</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>11340</v>
       </c>
-      <c r="I11">
-        <f>7838+B11</f>
+      <c r="I15">
+        <f>7838+B15</f>
         <v>10847</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>3073</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>12041</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>10002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G16">
+        <v>11193</v>
+      </c>
+      <c r="I16">
+        <v>10704</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>3888</v>
       </c>
-      <c r="G13">
+      <c r="G17">
         <v>13426</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>11913</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1513</v>
+      </c>
+      <c r="N17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>10223</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>37781</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>42134</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>32009</v>
       </c>
-      <c r="G14">
+      <c r="G18">
         <v>36957</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>36635</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>36957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>27126</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="F15">
+      <c r="F19">
         <v>86049</v>
       </c>
-      <c r="G15">
+      <c r="G19">
         <v>96852</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>96852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>207775</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>743973</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>824792</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>653249</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:I15" xr:uid="{EF70D8E8-481A-4035-A238-8E1AD3478CB8}"/>
-  <sortState ref="A2:K16">
-    <sortCondition ref="B2:B16"/>
+  <sortState ref="A2:N22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B94216-D51E-4349-87DC-B4C634E44183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4E47E-FA1A-4E1F-BBD1-A9857A944E2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1985" yWindow="1706" windowWidth="17425" windowHeight="9052" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,30 @@
   </si>
   <si>
     <t>annealing for initial map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>best initial mapping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 10, 15, 12, 11, 5, 13, 3, 14, 2, 8, 6, 1, 9, 0, 7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11, 6, 5, 3, 4, 13, 12, 2, 14, 7, 9, 0, 8, 1, 15, 10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 15, 14, 4, 12, 10, 0, 3, 13, 5, 6, 11, 9, 1, 7, 8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 13, 6, 10, 8, 15, 14, 4, 5, 11, 9, 12, 7]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -572,14 +596,17 @@
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" customWidth="1"/>
-    <col min="11" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,16 +641,22 @@
         <v>34</v>
       </c>
       <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -646,8 +679,18 @@
         <f>G2-I2</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>582</v>
+      </c>
+      <c r="L2">
+        <f>G2-K2</f>
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -680,13 +723,14 @@
         <v>438</v>
       </c>
       <c r="L3">
-        <v>459</v>
-      </c>
-      <c r="N3" t="s">
+        <f t="shared" ref="L3:L21" si="1">G3-K3</f>
+        <v>199</v>
+      </c>
+      <c r="P3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -718,11 +762,15 @@
       <c r="K4">
         <v>651</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="P4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -745,11 +793,21 @@
         <f t="shared" si="0"/>
         <v>-38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="K5">
+        <v>747</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -772,8 +830,18 @@
         <f t="shared" si="0"/>
         <v>-56</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>953</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -799,8 +867,12 @@
       <c r="K7">
         <v>960</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -817,11 +889,21 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M8">
+      <c r="K8">
+        <v>1136</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8">
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -845,10 +927,14 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -871,11 +957,15 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1776</v>
+      </c>
+      <c r="P10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -901,11 +991,15 @@
       <c r="K11">
         <v>2962</v>
       </c>
-      <c r="N11" t="s">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+      <c r="P11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -928,11 +1022,15 @@
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
-      <c r="N12" t="s">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>4528</v>
+      </c>
+      <c r="P12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -955,8 +1053,12 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -976,8 +1078,15 @@
         <f t="shared" si="0"/>
         <v>7348</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>5839</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1001,8 +1110,12 @@
         <f t="shared" si="0"/>
         <v>493</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1025,11 +1138,15 @@
         <f t="shared" si="0"/>
         <v>489</v>
       </c>
-      <c r="N16" t="s">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>11193</v>
+      </c>
+      <c r="P16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1046,11 +1163,15 @@
         <f t="shared" si="0"/>
         <v>1513</v>
       </c>
-      <c r="N17" t="s">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>13426</v>
+      </c>
+      <c r="P17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1076,8 +1197,12 @@
         <f t="shared" si="0"/>
         <v>36957</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>36957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1097,8 +1222,12 @@
         <f t="shared" si="0"/>
         <v>96852</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>96852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1118,27 +1247,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:I15" xr:uid="{EF70D8E8-481A-4035-A238-8E1AD3478CB8}"/>
-  <sortState ref="A2:N22">
+  <sortState ref="A2:P22">
     <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J1:J1048576 L1:M1048576 K2 K5">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576 L1:L1048576 K2 K5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4E47E-FA1A-4E1F-BBD1-A9857A944E2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6C8CA-83AB-4519-8B63-594611697DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="1428" yWindow="1198" windowWidth="17425" windowHeight="9051" activeTab="1" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="QX5" sheetId="1" r:id="rId1"/>
+    <sheet name="QX20" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'QX5'!$I$1:$I$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>my method with lookahead 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sqrt8_260</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,6 +194,154 @@
   <si>
     <t>[0, 1, 2, 3, 13, 6, 10, 8, 15, 14, 4, 5, 11, 9, 12, 7]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 13, 6, 10, 8, 15, 14, 4, 5, 11, 9, 12, 7]</t>
+  </si>
+  <si>
+    <t>[15, 2, 3, 14, 13, 12, 11, 10, 9, 8, 0, 1, 6, 5, 7, 4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 12, 13, 14, 3, 1, 15, 0, 2, 4, 5, 11, 10, 7, 9, 8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15, 9, 7, 8, 2, 10, 11, 12, 4, 5, 6, 13, 14, 3, 1, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4mod5-v1 22</t>
+  </si>
+  <si>
+    <t>my method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod5mils 65</t>
+  </si>
+  <si>
+    <t>alu-v0_27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decod24-v2 43</t>
+  </si>
+  <si>
+    <t>4gt13_92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ising_model_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ising_model_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ising_model_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qft_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qft_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd84_142</t>
+  </si>
+  <si>
+    <t>adr4_197</t>
+  </si>
+  <si>
+    <t>radd_250</t>
+  </si>
+  <si>
+    <t>z4_268</t>
+  </si>
+  <si>
+    <t>sym6_145</t>
+  </si>
+  <si>
+    <t>cycle10_2_110</t>
+  </si>
+  <si>
+    <t>rd84_253</t>
+  </si>
+  <si>
+    <t>co14_215</t>
+  </si>
+  <si>
+    <t>sym9_193</t>
+  </si>
+  <si>
+    <t>9symml_195</t>
+  </si>
+  <si>
+    <t>paper add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13, 7, 8, 14, 18, 12, 9, 5, 17, 16, 19, 6, 15, 0, 10, 2, 3, 1, 11, 4]</t>
+  </si>
+  <si>
+    <t>rd73_252</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misex1_241</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>square_root_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 5, 11, 10, 15, 16, 17, 18, 13, 7, 8, 3, 4, 9, 14, 19, 2, 1, 12, 6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13, 4, 8, 9, 12, 14, 6, 15, 3, 5, 2, 16, 0, 17, 10, 19, 1, 7, 18, 11]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14, 19, 16, 18, 8, 7, 13, 11, 12, 17, 5, 1, 15, 10, 2, 9, 6, 4, 3, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18, 19, 17, 6, 14, 10, 11, 3, 9, 7, 13, 12, 8, 2, 1, 16, 4, 0, 5, 15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11, 13, 14, 12, 7, 8, 18, 10, 2, 6, 3, 9, 1, 5, 19, 15, 17, 4, 16, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqn_258</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 11, 7, 16, 12, 17, 10, 2, 5, 13, 15, 1, 9, 14, 4, 3, 8, 18, 0, 19]</t>
   </si>
 </sst>
 </file>
@@ -236,12 +380,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +416,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -617,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -626,34 +779,34 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -669,30 +822,30 @@
       <c r="F2">
         <v>587</v>
       </c>
-      <c r="G2">
-        <v>734</v>
+      <c r="G2" t="s">
+        <v>77</v>
       </c>
       <c r="I2">
         <v>723</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="e">
         <f>G2-I2</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K2">
         <v>582</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="e">
         <f>G2-K2</f>
-        <v>152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -727,12 +880,12 @@
         <v>199</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>215</v>
@@ -767,12 +920,12 @@
         <v>289</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>230</v>
@@ -801,15 +954,15 @@
         <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>275</v>
@@ -838,12 +991,12 @@
         <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>328</v>
@@ -874,7 +1027,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>343</v>
@@ -897,7 +1050,7 @@
         <v>245</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8">
         <v>457</v>
@@ -927,9 +1080,15 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
+      <c r="K9">
+        <v>598</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -957,12 +1116,18 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="K10">
+        <v>1297</v>
+      </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1776</v>
+        <v>479</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -996,12 +1161,12 @@
         <v>905</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1221</v>
@@ -1022,17 +1187,23 @@
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
+      <c r="K12">
+        <v>3578</v>
+      </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>4528</v>
+        <v>950</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1776</v>
@@ -1053,14 +1224,20 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
+      <c r="K13">
+        <v>5505</v>
+      </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>6209</v>
+        <v>704</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1993</v>
@@ -1088,7 +1265,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>3009</v>
@@ -1143,12 +1320,12 @@
         <v>11193</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>3888</v>
@@ -1168,12 +1345,12 @@
         <v>13426</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B18">
         <v>10223</v>
@@ -1204,13 +1381,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>27126</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>86049</v>
@@ -1229,7 +1406,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>207775</v>
@@ -1268,7 +1445,7 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J1048576 L1:M1048576 K2 K5">
+  <conditionalFormatting sqref="J1:J1048576 L1:M1048576 K2 K5 K10 K12:K13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1280,7 +1457,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 L1:L1048576 K2 K5">
+  <conditionalFormatting sqref="J1:J1048576 L1:L1048576 K2 K5 K10 K12:K13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1291,11 +1478,659 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D20069-0B98-43C8-A3E9-A62248B115C9}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <f>D2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <f>G2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">B3+C3</f>
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">D3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H20" si="2">G3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>480</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E7">
+        <v>480</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>633</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>633</v>
+      </c>
+      <c r="E8">
+        <v>633</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>786</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>786</v>
+      </c>
+      <c r="E9" s="2">
+        <v>786</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="E10">
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="C11">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="E11">
+        <v>683</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>343</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="E12">
+        <v>442</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>3439</v>
+      </c>
+      <c r="C13">
+        <v>1614</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5053</v>
+      </c>
+      <c r="E13">
+        <v>4366</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.42565055762081783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>3213</v>
+      </c>
+      <c r="C14">
+        <v>1275</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4488</v>
+      </c>
+      <c r="E14">
+        <v>4179</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.24235294117647058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>3073</v>
+      </c>
+      <c r="C15">
+        <v>1365</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4438</v>
+      </c>
+      <c r="E15">
+        <v>3781</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.48131868131868133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>3888</v>
+      </c>
+      <c r="C16">
+        <v>1272</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5160</v>
+      </c>
+      <c r="E16">
+        <v>4752</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.32075471698113206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>4813</v>
+      </c>
+      <c r="C17">
+        <v>1521</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6334</v>
+      </c>
+      <c r="E17">
+        <v>5695</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>639</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.42011834319526625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>5321</v>
+      </c>
+      <c r="C18">
+        <v>2133</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7454</v>
+      </c>
+      <c r="E18">
+        <v>6539</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <f>D18-E18</f>
+        <v>915</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.42897327707454291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>6050</v>
+      </c>
+      <c r="C19">
+        <v>2622</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>8672</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="3">D19-E19</f>
+        <v>8672</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3.3073989321128909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>7630</v>
+      </c>
+      <c r="C20">
+        <v>2598</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>10228</v>
+      </c>
+      <c r="E20">
+        <v>9151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>1077</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.41454965357967666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>10223</v>
+      </c>
+      <c r="C21">
+        <v>4344</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>14567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>13658</v>
+      </c>
+      <c r="C22">
+        <v>6147</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>19805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>17936</v>
+      </c>
+      <c r="C23">
+        <v>8982</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>26918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>34881</v>
+      </c>
+      <c r="C24">
+        <v>16653</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>51534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>34881</v>
+      </c>
+      <c r="C25">
+        <v>17268</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>52149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="100"/>
         <color rgb="FFF8696B"/>
         <color theme="0"/>
         <color rgb="FF63BE7B"/>
@@ -1305,198 +2140,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D20069-0B98-43C8-A3E9-A62248B115C9}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>685</v>
-      </c>
-      <c r="E2">
-        <v>721</v>
-      </c>
-      <c r="F2">
-        <v>637</v>
-      </c>
-      <c r="G2">
-        <v>536</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>215</v>
-      </c>
-      <c r="C3">
-        <v>962</v>
-      </c>
-      <c r="E3">
-        <v>1207</v>
-      </c>
-      <c r="F3">
-        <v>940</v>
-      </c>
-      <c r="G3">
-        <v>816</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>512</v>
-      </c>
-      <c r="C4">
-        <v>2193</v>
-      </c>
-      <c r="F4">
-        <v>1776</v>
-      </c>
-      <c r="G4">
-        <v>1724</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>986</v>
-      </c>
-      <c r="C5">
-        <v>3632</v>
-      </c>
-      <c r="F5">
-        <v>3867</v>
-      </c>
-      <c r="G5">
-        <v>3292</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1221</v>
-      </c>
-      <c r="C6">
-        <v>4254</v>
-      </c>
-      <c r="F6">
-        <v>4528</v>
-      </c>
-      <c r="G6">
-        <v>3530</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3009</v>
-      </c>
-      <c r="C7">
-        <v>11921</v>
-      </c>
-      <c r="F7">
-        <v>11340</v>
-      </c>
-      <c r="G7">
-        <f>7838+B7</f>
-        <v>10847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>3888</v>
-      </c>
-      <c r="F8">
-        <v>13426</v>
-      </c>
-      <c r="G8">
-        <v>11913</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/result/QASM.xlsx
+++ b/result/QASM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Anaconda3\Lib\site-packages\circuittransform\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6C8CA-83AB-4519-8B63-594611697DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3136E4-922F-4F80-9F2B-D5F49137AB16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1198" windowWidth="17425" windowHeight="9051" activeTab="1" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{A4679066-D772-4BC4-955E-CB79E73092DB}"/>
   </bookViews>
   <sheets>
     <sheet name="QX5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>QASM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,89 +259,101 @@
     <t>rd84_142</t>
   </si>
   <si>
+    <t>radd_250</t>
+  </si>
+  <si>
+    <t>z4_268</t>
+  </si>
+  <si>
+    <t>cycle10_2_110</t>
+  </si>
+  <si>
+    <t>rd84_253</t>
+  </si>
+  <si>
+    <t>co14_215</t>
+  </si>
+  <si>
+    <t>sym9_193</t>
+  </si>
+  <si>
+    <t>9symml_195</t>
+  </si>
+  <si>
+    <t>paper add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd73_252</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misex1_241</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>square_root_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 5, 11, 10, 15, 16, 17, 18, 13, 7, 8, 3, 4, 9, 14, 19, 2, 1, 12, 6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13, 4, 8, 9, 12, 14, 6, 15, 3, 5, 2, 16, 0, 17, 10, 19, 1, 7, 18, 11]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14, 19, 16, 18, 8, 7, 13, 11, 12, 17, 5, 1, 15, 10, 2, 9, 6, 4, 3, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18, 19, 17, 6, 14, 10, 11, 3, 9, 7, 13, 12, 8, 2, 1, 16, 4, 0, 5, 15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11, 13, 14, 12, 7, 8, 18, 10, 2, 6, 3, 9, 1, 5, 19, 15, 17, 4, 16, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqn_258</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>adr4_197</t>
-  </si>
-  <si>
-    <t>radd_250</t>
-  </si>
-  <si>
-    <t>z4_268</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sym6_145</t>
-  </si>
-  <si>
-    <t>cycle10_2_110</t>
-  </si>
-  <si>
-    <t>rd84_253</t>
-  </si>
-  <si>
-    <t>co14_215</t>
-  </si>
-  <si>
-    <t>sym9_193</t>
-  </si>
-  <si>
-    <t>9symml_195</t>
-  </si>
-  <si>
-    <t>paper add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paper total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparison</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[13, 7, 8, 14, 18, 12, 9, 5, 17, 16, 19, 6, 15, 0, 10, 2, 3, 1, 11, 4]</t>
-  </si>
-  <si>
-    <t>rd73_252</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>misex1_241</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>square_root_7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 5, 11, 10, 15, 16, 17, 18, 13, 7, 8, 3, 4, 9, 14, 19, 2, 1, 12, 6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13, 4, 8, 9, 12, 14, 6, 15, 3, 5, 2, 16, 0, 17, 10, 19, 1, 7, 18, 11]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[14, 19, 16, 18, 8, 7, 13, 11, 12, 17, 5, 1, 15, 10, 2, 9, 6, 4, 3, 0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[18, 19, 17, 6, 14, 10, 11, 3, 9, 7, 13, 12, 8, 2, 1, 16, 4, 0, 5, 15]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11, 13, 14, 12, 7, 8, 18, 10, 2, 6, 3, 9, 1, 5, 19, 15, 17, 4, 16, 0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqn_258</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[6, 11, 7, 16, 12, 17, 10, 2, 5, 13, 15, 1, 9, 14, 4, 3, 8, 18, 0, 19]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 1, 5, 0, 13, 12, 3, 4, 14, 15, 7, 8, 11, 6, 10, 9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 1, 8, 13, 16, 17, 11, 6, 12, 7, 19, 18, 9, 4, 15, 14, 10, 5, 0, 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99136C82-9D3C-4FB5-8521-8F896A17592B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -823,7 +835,7 @@
         <v>587</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>723</v>
@@ -1374,9 +1386,15 @@
         <f t="shared" si="0"/>
         <v>36957</v>
       </c>
+      <c r="K18">
+        <v>30083</v>
+      </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>36957</v>
+        <v>6874</v>
+      </c>
+      <c r="M18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1445,7 +1463,7 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J1048576 L1:M1048576 K2 K5 K10 K12:K13">
+  <conditionalFormatting sqref="J1:J1048576 L1:M1048576 K2 K5 K10 K12:K13 K18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1457,7 +1475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576 L1:L1048576 K2 K5 K10 K12:K13">
+  <conditionalFormatting sqref="J1:J1048576 L1:L1048576 K2 K5 K10 K12:K13 K18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1488,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D20069-0B98-43C8-A3E9-A62248B115C9}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1512,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>45</v>
@@ -1524,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1578,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="e">
-        <f t="shared" ref="H3:H20" si="2">G3/C3</f>
+        <f t="shared" ref="H3:H21" si="2">G3/C3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3">
@@ -1603,7 +1621,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -1739,7 +1757,7 @@
         <v>786</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -1833,7 +1851,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>3439</v>
@@ -1859,7 +1877,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>3213</v>
@@ -1885,7 +1903,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>3073</v>
@@ -1911,7 +1929,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>3888</v>
@@ -1927,7 +1945,7 @@
         <v>4752</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -1940,7 +1958,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>4813</v>
@@ -1956,7 +1974,7 @@
         <v>5695</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -1969,7 +1987,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>5321</v>
@@ -1985,7 +2003,7 @@
         <v>6539</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <f>D18-E18</f>
@@ -1998,7 +2016,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>6050</v>
@@ -2011,7 +2029,7 @@
         <v>8672</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G20" si="3">D19-E19</f>
+        <f t="shared" ref="G19:G21" si="3">D19-E19</f>
         <v>8672</v>
       </c>
       <c r="H19">
@@ -2021,7 +2039,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>7630</v>
@@ -2037,7 +2055,7 @@
         <v>9151</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
@@ -2050,7 +2068,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>10223</v>
@@ -2062,10 +2080,24 @@
         <f t="shared" si="0"/>
         <v>14567</v>
       </c>
+      <c r="E21">
+        <v>12347</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>2220</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.51104972375690605</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>13658</v>
@@ -2080,7 +2112,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>17936</v>
@@ -2095,7 +2127,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>34881</v>
@@ -2110,7 +2142,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>34881</v>
